--- a/static/bom_examples/bom_example.xlsx
+++ b/static/bom_examples/bom_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatsadykov/Desktop/AI_Project/bom_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatsadykov/Desktop/AI_Project/static/bom_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F6C0CB-F3C5-8941-8821-167EE8FD8CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC245D09-467D-804B-98FB-A8C699ABF27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15800" windowHeight="17500" xr2:uid="{2514DFA1-471D-3945-8BB2-0C6D3BDD523A}"/>
   </bookViews>
@@ -32,30 +32,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Index</t>
+    <t>url</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>name</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t>manufacturer</t>
   </si>
   <si>
-    <t>gre</t>
+    <t>characteristics</t>
   </si>
   <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Characteristics</t>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -408,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A16E60-6A3A-344C-86C7-98D639E5FC37}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,38 +419,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
